--- a/Code/Results/Cases/Case_5_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_145/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.4630830990924</v>
+        <v>21.81010410189278</v>
       </c>
       <c r="C2">
-        <v>18.64710481138549</v>
+        <v>14.24849248060803</v>
       </c>
       <c r="D2">
-        <v>2.677231734490502</v>
+        <v>5.509729791891681</v>
       </c>
       <c r="E2">
-        <v>6.087705676423689</v>
+        <v>10.9816890085752</v>
       </c>
       <c r="F2">
-        <v>42.82785216214464</v>
+        <v>48.70175862158818</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.675665773846925</v>
+        <v>9.836636151400949</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.15906586938823</v>
+        <v>20.67638889649261</v>
       </c>
       <c r="N2">
-        <v>14.16629976503022</v>
+        <v>20.99764970910269</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.78857785096519</v>
+        <v>21.40109903940493</v>
       </c>
       <c r="C3">
-        <v>17.29890070265857</v>
+        <v>13.87932588755949</v>
       </c>
       <c r="D3">
-        <v>2.618813986782722</v>
+        <v>5.503787484904629</v>
       </c>
       <c r="E3">
-        <v>6.080676656572404</v>
+        <v>11.00212571772379</v>
       </c>
       <c r="F3">
-        <v>41.11981752918217</v>
+        <v>48.48214296658345</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.704011276824711</v>
+        <v>9.858482385446681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.31957566477674</v>
+        <v>20.57850992337479</v>
       </c>
       <c r="N3">
-        <v>14.36906239386589</v>
+        <v>21.05364744127031</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.73096822329571</v>
+        <v>21.15314531910661</v>
       </c>
       <c r="C4">
-        <v>16.47275744827263</v>
+        <v>13.65258548663799</v>
       </c>
       <c r="D4">
-        <v>2.583581772772201</v>
+        <v>5.500147929783354</v>
       </c>
       <c r="E4">
-        <v>6.078770110518251</v>
+        <v>11.01581593387925</v>
       </c>
       <c r="F4">
-        <v>40.08605395256345</v>
+        <v>48.3598785780392</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.723699829789284</v>
+        <v>9.872916111439677</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.79843312807796</v>
+        <v>20.52342341889581</v>
       </c>
       <c r="N4">
-        <v>14.49841923639652</v>
+        <v>21.09001153987321</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.29124028722469</v>
+        <v>21.05304857057314</v>
       </c>
       <c r="C5">
-        <v>16.13009336013432</v>
+        <v>13.56032451679632</v>
       </c>
       <c r="D5">
-        <v>2.569352088061411</v>
+        <v>5.498666784904074</v>
       </c>
       <c r="E5">
-        <v>6.078583381567094</v>
+        <v>11.02168240543789</v>
       </c>
       <c r="F5">
-        <v>39.66876054433116</v>
+        <v>48.3132430087329</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.732280453268459</v>
+        <v>9.879054763924046</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.58482834917817</v>
+        <v>20.50225097985879</v>
       </c>
       <c r="N5">
-        <v>14.55231840962449</v>
+        <v>21.10532821433283</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.21770109620785</v>
+        <v>21.03648904635385</v>
       </c>
       <c r="C6">
-        <v>16.07272320195389</v>
+        <v>13.54501760348446</v>
       </c>
       <c r="D6">
-        <v>2.56699609139059</v>
+        <v>5.498420955065709</v>
       </c>
       <c r="E6">
-        <v>6.078587582806938</v>
+        <v>11.02267391145057</v>
       </c>
       <c r="F6">
-        <v>39.59971652213223</v>
+        <v>48.30569239407016</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.733738454040789</v>
+        <v>9.880089600751603</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.54929157094095</v>
+        <v>20.49881278380533</v>
       </c>
       <c r="N6">
-        <v>14.56133896578683</v>
+        <v>21.10790160975592</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.72507307232532</v>
+        <v>21.15179135265487</v>
       </c>
       <c r="C7">
-        <v>16.46816776065654</v>
+        <v>13.65134045673079</v>
       </c>
       <c r="D7">
-        <v>2.58338938943143</v>
+        <v>5.500127946790833</v>
       </c>
       <c r="E7">
-        <v>6.078765222477787</v>
+        <v>11.01589388611127</v>
       </c>
       <c r="F7">
-        <v>40.08040977921261</v>
+        <v>48.35923669647605</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.72381331567427</v>
+        <v>9.872997859312791</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.79555708302499</v>
+        <v>20.52313269524831</v>
       </c>
       <c r="N7">
-        <v>14.49914138414894</v>
+        <v>21.09021608969864</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.88689537365978</v>
+        <v>21.66850823854833</v>
       </c>
       <c r="C8">
-        <v>18.18979453534924</v>
+        <v>14.12130996993048</v>
       </c>
       <c r="D8">
-        <v>2.656936630661965</v>
+        <v>5.507678841596628</v>
       </c>
       <c r="E8">
-        <v>6.084772293135029</v>
+        <v>10.98849882562428</v>
       </c>
       <c r="F8">
-        <v>42.2359166542897</v>
+        <v>48.62344026893977</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.684954464282486</v>
+        <v>9.843957196407342</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.87089276359944</v>
+        <v>20.64160995037743</v>
       </c>
       <c r="N8">
-        <v>14.23517921770548</v>
+        <v>21.0165463942373</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11781626344321</v>
+        <v>22.70054779713356</v>
       </c>
       <c r="C9">
-        <v>21.35792522223819</v>
+        <v>15.03584260755798</v>
       </c>
       <c r="D9">
-        <v>2.807876539302814</v>
+        <v>5.522570844891119</v>
       </c>
       <c r="E9">
-        <v>6.116434207838136</v>
+        <v>10.94381942191707</v>
       </c>
       <c r="F9">
-        <v>46.5768580007378</v>
+        <v>49.24006855333437</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.627732193762673</v>
+        <v>9.795089323030494</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.92865046436217</v>
+        <v>20.91294263563591</v>
       </c>
       <c r="N9">
-        <v>13.75820447876684</v>
+        <v>20.88780921635368</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.04054137467448</v>
+        <v>23.46174464826203</v>
       </c>
       <c r="C10">
-        <v>23.52705419003267</v>
+        <v>15.69523779890617</v>
       </c>
       <c r="D10">
-        <v>2.925563692780752</v>
+        <v>5.533582620902981</v>
       </c>
       <c r="E10">
-        <v>6.15299601251993</v>
+        <v>10.91648042150852</v>
       </c>
       <c r="F10">
-        <v>49.83722899667017</v>
+        <v>49.75114427578061</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.598606515640164</v>
+        <v>9.764095036283845</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.6473490429306</v>
+        <v>21.13492838551353</v>
       </c>
       <c r="N10">
-        <v>13.43631880837503</v>
+        <v>20.80282594839591</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.32836240234881</v>
+        <v>23.80695632005093</v>
       </c>
       <c r="C11">
-        <v>24.48356770789652</v>
+        <v>15.99093408569717</v>
       </c>
       <c r="D11">
-        <v>2.981312172116704</v>
+        <v>5.538611696734992</v>
       </c>
       <c r="E11">
-        <v>6.172818344138003</v>
+        <v>10.90522926210832</v>
       </c>
       <c r="F11">
-        <v>51.33895969266054</v>
+        <v>49.99572949702026</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.588512718018274</v>
+        <v>9.751057309938087</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.47966569295664</v>
+        <v>21.24055631831295</v>
       </c>
       <c r="N11">
-        <v>13.29723942243476</v>
+        <v>20.76625251031165</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.81053474164488</v>
+        <v>23.93739063236685</v>
       </c>
       <c r="C12">
-        <v>24.84184613538814</v>
+        <v>16.10217564245131</v>
       </c>
       <c r="D12">
-        <v>3.002815243866899</v>
+        <v>5.540519244546473</v>
       </c>
       <c r="E12">
-        <v>6.180812443153457</v>
+        <v>10.90113877868106</v>
       </c>
       <c r="F12">
-        <v>51.91076477715528</v>
+        <v>50.09003683200185</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.585178735986335</v>
+        <v>9.746272678379215</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.79102211970186</v>
+        <v>21.28119758785795</v>
       </c>
       <c r="N12">
-        <v>13.2457583055143</v>
+        <v>20.75270346894301</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.70692577531712</v>
+        <v>23.90931427704612</v>
       </c>
       <c r="C13">
-        <v>24.76485197227351</v>
+        <v>16.0782521367133</v>
       </c>
       <c r="D13">
-        <v>2.998165397933166</v>
+        <v>5.540108275200371</v>
       </c>
       <c r="E13">
-        <v>6.179068566770482</v>
+        <v>10.9020121789858</v>
       </c>
       <c r="F13">
-        <v>51.7874675633669</v>
+        <v>50.06965182347054</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.585874446424876</v>
+        <v>9.74729635630664</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.72412990347379</v>
+        <v>21.27241662114585</v>
       </c>
       <c r="N13">
-        <v>13.25679059920707</v>
+        <v>20.75560812173837</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.36813796967682</v>
+        <v>23.81769380172207</v>
       </c>
       <c r="C14">
-        <v>24.51311966618479</v>
+        <v>16.00010131612817</v>
       </c>
       <c r="D14">
-        <v>2.983072907194454</v>
+        <v>5.538768567033724</v>
       </c>
       <c r="E14">
-        <v>6.173466065396131</v>
+        <v>10.9048893290004</v>
       </c>
       <c r="F14">
-        <v>51.3859363258791</v>
+        <v>50.00345468779791</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.588228426898194</v>
+        <v>9.750660620787444</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.50535562948034</v>
+        <v>21.24388717986024</v>
       </c>
       <c r="N14">
-        <v>13.29297944220333</v>
+        <v>20.76513179607304</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.15992126076123</v>
+        <v>23.76153190371544</v>
       </c>
       <c r="C15">
-        <v>24.35842778502746</v>
+        <v>15.95213296621764</v>
       </c>
       <c r="D15">
-        <v>2.97388184257001</v>
+        <v>5.537948375892091</v>
       </c>
       <c r="E15">
-        <v>6.170098833441977</v>
+        <v>10.90667380528036</v>
       </c>
       <c r="F15">
-        <v>51.1404117769729</v>
+        <v>49.9631253160962</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.589735011866812</v>
+        <v>9.75274118041248</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.37086330509194</v>
+        <v>21.22649493015255</v>
       </c>
       <c r="N15">
-        <v>13.31530483193793</v>
+        <v>20.77100447684616</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.9555804148919</v>
+        <v>23.43915102273003</v>
       </c>
       <c r="C16">
-        <v>23.4639692832936</v>
+        <v>15.67581713666244</v>
       </c>
       <c r="D16">
-        <v>2.921970965829362</v>
+        <v>5.533254382552147</v>
       </c>
       <c r="E16">
-        <v>6.151767163344083</v>
+        <v>10.9172395333846</v>
       </c>
       <c r="F16">
-        <v>49.73949621221334</v>
+        <v>49.73539915179182</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.599332510820712</v>
+        <v>9.764968429591722</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.59240001895035</v>
+        <v>21.12811665751044</v>
       </c>
       <c r="N16">
-        <v>13.44556616624923</v>
+        <v>20.80525813029785</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.20639681440063</v>
+        <v>23.24100938978453</v>
       </c>
       <c r="C17">
-        <v>22.90777794746045</v>
+        <v>15.50512615645332</v>
       </c>
       <c r="D17">
-        <v>2.890740768168513</v>
+        <v>5.530380046563549</v>
       </c>
       <c r="E17">
-        <v>6.141357790938869</v>
+        <v>10.9240246236337</v>
       </c>
       <c r="F17">
-        <v>48.88510607901149</v>
+        <v>49.59875906442964</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.606051577067306</v>
+        <v>9.772741239071726</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.10763987668027</v>
+        <v>21.06893666852645</v>
       </c>
       <c r="N17">
-        <v>13.52744184793541</v>
+        <v>20.8268062788278</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.77152210488398</v>
+        <v>23.1269515619849</v>
       </c>
       <c r="C18">
-        <v>22.58499688778715</v>
+        <v>15.40655418597588</v>
       </c>
       <c r="D18">
-        <v>2.87298105740889</v>
+        <v>5.528728646338966</v>
       </c>
       <c r="E18">
-        <v>6.135668913328307</v>
+        <v>10.9280388350661</v>
       </c>
       <c r="F18">
-        <v>48.3953931425659</v>
+        <v>49.52130895741048</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.610210894503913</v>
+        <v>9.777311900359713</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.82606475218637</v>
+        <v>21.03533678495339</v>
       </c>
       <c r="N18">
-        <v>13.57521694614403</v>
+        <v>20.83939649931412</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.62358621771819</v>
+        <v>23.08832203073881</v>
       </c>
       <c r="C19">
-        <v>22.47520354509047</v>
+        <v>15.37311534036575</v>
       </c>
       <c r="D19">
-        <v>2.867000744727715</v>
+        <v>5.528169817750441</v>
       </c>
       <c r="E19">
-        <v>6.133793172955213</v>
+        <v>10.92941715840636</v>
       </c>
       <c r="F19">
-        <v>48.2298673876311</v>
+        <v>49.49528325618218</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.611668806216707</v>
+        <v>9.778876619978552</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.73024550151795</v>
+        <v>21.02403658434143</v>
       </c>
       <c r="N19">
-        <v>13.59150651828377</v>
+        <v>20.84369302854675</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.28655558667947</v>
+        <v>23.26211244231247</v>
       </c>
       <c r="C20">
-        <v>22.96728018216089</v>
+        <v>15.52333827820296</v>
       </c>
       <c r="D20">
-        <v>2.894043761641582</v>
+        <v>5.530685831727115</v>
       </c>
       <c r="E20">
-        <v>6.142434814034791</v>
+        <v>10.92329079108639</v>
       </c>
       <c r="F20">
-        <v>48.97587768336839</v>
+        <v>49.6131868356056</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.605305587103024</v>
+        <v>9.77190346760624</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.15952608723895</v>
+        <v>21.07519123957957</v>
       </c>
       <c r="N20">
-        <v>13.51865457999244</v>
+        <v>20.82449212175524</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.46779288079053</v>
+        <v>23.84461388456669</v>
       </c>
       <c r="C21">
-        <v>24.58716260403146</v>
+        <v>16.02307687725716</v>
       </c>
       <c r="D21">
-        <v>2.987494632012575</v>
+        <v>5.53916198397562</v>
       </c>
       <c r="E21">
-        <v>6.175098164065342</v>
+        <v>10.90403962727826</v>
       </c>
       <c r="F21">
-        <v>51.50378612553082</v>
+        <v>50.02285299637228</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.587523452665856</v>
+        <v>9.749668318287483</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.56971568170549</v>
+        <v>21.25224974863952</v>
       </c>
       <c r="N21">
-        <v>13.28231656035397</v>
+        <v>20.76232630103937</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.86161738557939</v>
+        <v>24.22356383586913</v>
       </c>
       <c r="C22">
-        <v>25.62317542247554</v>
+        <v>16.34536877018037</v>
       </c>
       <c r="D22">
-        <v>3.050901617048846</v>
+        <v>5.544720120600738</v>
       </c>
       <c r="E22">
-        <v>6.199305631084418</v>
+        <v>10.89244909323283</v>
       </c>
       <c r="F22">
-        <v>53.17453815122168</v>
+        <v>50.30040776146028</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.578767934127103</v>
+        <v>9.736024999040445</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.46926956445311</v>
+        <v>21.37169856762169</v>
       </c>
       <c r="N22">
-        <v>13.13484714848771</v>
+        <v>20.72344933794135</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.12041960449431</v>
+        <v>24.02151473150081</v>
       </c>
       <c r="C23">
-        <v>25.07215378066122</v>
+        <v>16.17378720003507</v>
       </c>
       <c r="D23">
-        <v>3.016818638590182</v>
+        <v>5.54175184590456</v>
       </c>
       <c r="E23">
-        <v>6.186113194060889</v>
+        <v>10.89854461082566</v>
       </c>
       <c r="F23">
-        <v>52.28091786166959</v>
+        <v>50.15139125677227</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.583165896861334</v>
+        <v>9.74322545051448</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.99105244883598</v>
+        <v>21.30761392162659</v>
       </c>
       <c r="N23">
-        <v>13.21286396686793</v>
+        <v>20.74403819446988</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.25032879719952</v>
+        <v>23.25257218894064</v>
       </c>
       <c r="C24">
-        <v>22.94038865645511</v>
+        <v>15.51510593763802</v>
       </c>
       <c r="D24">
-        <v>2.892549876477006</v>
+        <v>5.530547582870261</v>
       </c>
       <c r="E24">
-        <v>6.141946973263763</v>
+        <v>10.92362220362116</v>
       </c>
       <c r="F24">
-        <v>48.9348352405922</v>
+        <v>49.60666059118432</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.605641928381527</v>
+        <v>9.772281906457982</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.1360773276752</v>
+        <v>21.0723622270213</v>
       </c>
       <c r="N24">
-        <v>13.52262512140381</v>
+        <v>20.82553772332894</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.00159497655637</v>
+        <v>22.42023421292712</v>
       </c>
       <c r="C25">
-        <v>20.52991835739631</v>
+        <v>14.7900735140769</v>
       </c>
       <c r="D25">
-        <v>2.766069863210537</v>
+        <v>5.518531146330498</v>
       </c>
       <c r="E25">
-        <v>6.105625891446087</v>
+        <v>10.95494097650179</v>
       </c>
       <c r="F25">
-        <v>45.39058385082307</v>
+        <v>49.06289827814451</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.641051536023807</v>
+        <v>9.807446087105752</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.37801143351792</v>
+        <v>20.8354758208488</v>
       </c>
       <c r="N25">
-        <v>13.88255129539342</v>
+        <v>20.92095114036778</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_145/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.81010410189278</v>
+        <v>25.46308309909247</v>
       </c>
       <c r="C2">
-        <v>14.24849248060803</v>
+        <v>18.64710481138552</v>
       </c>
       <c r="D2">
-        <v>5.509729791891681</v>
+        <v>2.67723173449077</v>
       </c>
       <c r="E2">
-        <v>10.9816890085752</v>
+        <v>6.087705676423742</v>
       </c>
       <c r="F2">
-        <v>48.70175862158818</v>
+        <v>42.82785216214451</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.836636151400949</v>
+        <v>5.675665773846876</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.67638889649261</v>
+        <v>17.15906586938821</v>
       </c>
       <c r="N2">
-        <v>20.99764970910269</v>
+        <v>14.16629976503009</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.40109903940493</v>
+        <v>23.78857785096519</v>
       </c>
       <c r="C3">
-        <v>13.87932588755949</v>
+        <v>17.2989007026586</v>
       </c>
       <c r="D3">
-        <v>5.503787484904629</v>
+        <v>2.618813986782724</v>
       </c>
       <c r="E3">
-        <v>11.00212571772379</v>
+        <v>6.080676656572471</v>
       </c>
       <c r="F3">
-        <v>48.48214296658345</v>
+        <v>41.11981752918201</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.858482385446681</v>
+        <v>5.704011276824657</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.57850992337479</v>
+        <v>16.31957566477673</v>
       </c>
       <c r="N3">
-        <v>21.05364744127031</v>
+        <v>14.3690623938658</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.15314531910661</v>
+        <v>22.73096822329573</v>
       </c>
       <c r="C4">
-        <v>13.65258548663799</v>
+        <v>16.47275744827269</v>
       </c>
       <c r="D4">
-        <v>5.500147929783354</v>
+        <v>2.583581772772134</v>
       </c>
       <c r="E4">
-        <v>11.01581593387925</v>
+        <v>6.078770110518128</v>
       </c>
       <c r="F4">
-        <v>48.3598785780392</v>
+        <v>40.08605395256341</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.872916111439677</v>
+        <v>5.723699829789284</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.52342341889581</v>
+        <v>15.79843312807795</v>
       </c>
       <c r="N4">
-        <v>21.09001153987321</v>
+        <v>14.49841923639652</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.05304857057314</v>
+        <v>22.29124028722471</v>
       </c>
       <c r="C5">
-        <v>13.56032451679632</v>
+        <v>16.13009336013429</v>
       </c>
       <c r="D5">
-        <v>5.498666784904074</v>
+        <v>2.569352088061076</v>
       </c>
       <c r="E5">
-        <v>11.02168240543789</v>
+        <v>6.078583381566798</v>
       </c>
       <c r="F5">
-        <v>48.3132430087329</v>
+        <v>39.66876054433121</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.879054763924046</v>
+        <v>5.732280453268434</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.50225097985879</v>
+        <v>15.58482834917817</v>
       </c>
       <c r="N5">
-        <v>21.10532821433283</v>
+        <v>14.55231840962449</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.03648904635385</v>
+        <v>22.21770109620782</v>
       </c>
       <c r="C6">
-        <v>13.54501760348446</v>
+        <v>16.07272320195389</v>
       </c>
       <c r="D6">
-        <v>5.498420955065709</v>
+        <v>2.566996091390792</v>
       </c>
       <c r="E6">
-        <v>11.02267391145057</v>
+        <v>6.078587582806951</v>
       </c>
       <c r="F6">
-        <v>48.30569239407016</v>
+        <v>39.59971652213199</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.880089600751603</v>
+        <v>5.733738454040759</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.49881278380533</v>
+        <v>15.54929157094089</v>
       </c>
       <c r="N6">
-        <v>21.10790160975592</v>
+        <v>14.5613389657867</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.15179135265487</v>
+        <v>22.72507307232528</v>
       </c>
       <c r="C7">
-        <v>13.65134045673079</v>
+        <v>16.46816776065657</v>
       </c>
       <c r="D7">
-        <v>5.500127946790833</v>
+        <v>2.583389389431497</v>
       </c>
       <c r="E7">
-        <v>11.01589388611127</v>
+        <v>6.078765222477737</v>
       </c>
       <c r="F7">
-        <v>48.35923669647605</v>
+        <v>40.08040977921248</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.872997859312791</v>
+        <v>5.723813315674183</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.52313269524831</v>
+        <v>15.79555708302495</v>
       </c>
       <c r="N7">
-        <v>21.09021608969864</v>
+        <v>14.49914138414887</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.66850823854833</v>
+        <v>24.88689537365977</v>
       </c>
       <c r="C8">
-        <v>14.12130996993048</v>
+        <v>18.18979453534923</v>
       </c>
       <c r="D8">
-        <v>5.507678841596628</v>
+        <v>2.656936630662232</v>
       </c>
       <c r="E8">
-        <v>10.98849882562428</v>
+        <v>6.084772293135144</v>
       </c>
       <c r="F8">
-        <v>48.62344026893977</v>
+        <v>42.23591665428958</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.843957196407342</v>
+        <v>5.684954464282507</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.64160995037743</v>
+        <v>16.87089276359943</v>
       </c>
       <c r="N8">
-        <v>21.0165463942373</v>
+        <v>14.23517921770535</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.70054779713356</v>
+        <v>29.11781626344323</v>
       </c>
       <c r="C9">
-        <v>15.03584260755798</v>
+        <v>21.35792522223819</v>
       </c>
       <c r="D9">
-        <v>5.522570844891119</v>
+        <v>2.807876539302677</v>
       </c>
       <c r="E9">
-        <v>10.94381942191707</v>
+        <v>6.116434207838253</v>
       </c>
       <c r="F9">
-        <v>49.24006855333437</v>
+        <v>46.5768580007378</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.795089323030494</v>
+        <v>5.627732193762778</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.91294263563591</v>
+        <v>18.92865046436218</v>
       </c>
       <c r="N9">
-        <v>20.88780921635368</v>
+        <v>13.75820447876679</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.46174464826203</v>
+        <v>32.04054137467464</v>
       </c>
       <c r="C10">
-        <v>15.69523779890617</v>
+        <v>23.52705419003262</v>
       </c>
       <c r="D10">
-        <v>5.533582620902981</v>
+        <v>2.925563692780752</v>
       </c>
       <c r="E10">
-        <v>10.91648042150852</v>
+        <v>6.152996012519775</v>
       </c>
       <c r="F10">
-        <v>49.75114427578061</v>
+        <v>49.83722899667031</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.764095036283845</v>
+        <v>5.59860651564009</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.13492838551353</v>
+        <v>20.64734904293068</v>
       </c>
       <c r="N10">
-        <v>20.80282594839591</v>
+        <v>13.43631880837503</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.80695632005093</v>
+        <v>33.32836240234875</v>
       </c>
       <c r="C11">
-        <v>15.99093408569717</v>
+        <v>24.48356770789652</v>
       </c>
       <c r="D11">
-        <v>5.538611696734992</v>
+        <v>2.98131217211677</v>
       </c>
       <c r="E11">
-        <v>10.90522926210832</v>
+        <v>6.17281834413796</v>
       </c>
       <c r="F11">
-        <v>49.99572949702026</v>
+        <v>51.33895969266047</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.751057309938087</v>
+        <v>5.588512718018224</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.24055631831295</v>
+        <v>21.47966569295663</v>
       </c>
       <c r="N11">
-        <v>20.76625251031165</v>
+        <v>13.29723942243474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.93739063236685</v>
+        <v>33.81053474164493</v>
       </c>
       <c r="C12">
-        <v>16.10217564245131</v>
+        <v>24.84184613538809</v>
       </c>
       <c r="D12">
-        <v>5.540519244546473</v>
+        <v>3.002815243866965</v>
       </c>
       <c r="E12">
-        <v>10.90113877868106</v>
+        <v>6.180812443153457</v>
       </c>
       <c r="F12">
-        <v>50.09003683200185</v>
+        <v>51.91076477715528</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.746272678379215</v>
+        <v>5.58517873598629</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.28119758785795</v>
+        <v>21.79102211970189</v>
       </c>
       <c r="N12">
-        <v>20.75270346894301</v>
+        <v>13.24575830551425</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.90931427704612</v>
+        <v>33.70692577531736</v>
       </c>
       <c r="C13">
-        <v>16.0782521367133</v>
+        <v>24.76485197227344</v>
       </c>
       <c r="D13">
-        <v>5.540108275200371</v>
+        <v>2.998165397933031</v>
       </c>
       <c r="E13">
-        <v>10.9020121789858</v>
+        <v>6.179068566770511</v>
       </c>
       <c r="F13">
-        <v>50.06965182347054</v>
+        <v>51.78746756336693</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.74729635630664</v>
+        <v>5.585874446424969</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.27241662114585</v>
+        <v>21.72412990347392</v>
       </c>
       <c r="N13">
-        <v>20.75560812173837</v>
+        <v>13.2567905992069</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.81769380172207</v>
+        <v>33.36813796967671</v>
       </c>
       <c r="C14">
-        <v>16.00010131612817</v>
+        <v>24.51311966618471</v>
       </c>
       <c r="D14">
-        <v>5.538768567033724</v>
+        <v>2.983072907194253</v>
       </c>
       <c r="E14">
-        <v>10.9048893290004</v>
+        <v>6.173466065396203</v>
       </c>
       <c r="F14">
-        <v>50.00345468779791</v>
+        <v>51.38593632587902</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.750660620787444</v>
+        <v>5.58822842689831</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.24388717986024</v>
+        <v>21.50535562948028</v>
       </c>
       <c r="N14">
-        <v>20.76513179607304</v>
+        <v>13.29297944220342</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.76153190371544</v>
+        <v>33.15992126076124</v>
       </c>
       <c r="C15">
-        <v>15.95213296621764</v>
+        <v>24.35842778502758</v>
       </c>
       <c r="D15">
-        <v>5.537948375892091</v>
+        <v>2.973881842569945</v>
       </c>
       <c r="E15">
-        <v>10.90667380528036</v>
+        <v>6.170098833442035</v>
       </c>
       <c r="F15">
-        <v>49.9631253160962</v>
+        <v>51.14041177697293</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.75274118041248</v>
+        <v>5.589735011866843</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.22649493015255</v>
+        <v>21.37086330509198</v>
       </c>
       <c r="N15">
-        <v>20.77100447684616</v>
+        <v>13.31530483193795</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.43915102273003</v>
+        <v>31.95558041489191</v>
       </c>
       <c r="C16">
-        <v>15.67581713666244</v>
+        <v>23.46396928329353</v>
       </c>
       <c r="D16">
-        <v>5.533254382552147</v>
+        <v>2.921970965829361</v>
       </c>
       <c r="E16">
-        <v>10.9172395333846</v>
+        <v>6.151767163344124</v>
       </c>
       <c r="F16">
-        <v>49.73539915179182</v>
+        <v>49.73949621221331</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.764968429591722</v>
+        <v>5.599332510820696</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.12811665751044</v>
+        <v>20.59240001895033</v>
       </c>
       <c r="N16">
-        <v>20.80525813029785</v>
+        <v>13.4455661662493</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.24100938978453</v>
+        <v>31.20639681440054</v>
       </c>
       <c r="C17">
-        <v>15.50512615645332</v>
+        <v>22.90777794746049</v>
       </c>
       <c r="D17">
-        <v>5.530380046563549</v>
+        <v>2.890740768168581</v>
       </c>
       <c r="E17">
-        <v>10.9240246236337</v>
+        <v>6.141357790938855</v>
       </c>
       <c r="F17">
-        <v>49.59875906442964</v>
+        <v>48.88510607901138</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.772741239071726</v>
+        <v>5.606051577067355</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.06893666852645</v>
+        <v>20.10763987668024</v>
       </c>
       <c r="N17">
-        <v>20.8268062788278</v>
+        <v>13.52744184793543</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.1269515619849</v>
+        <v>30.77152210488396</v>
       </c>
       <c r="C18">
-        <v>15.40655418597588</v>
+        <v>22.58499688778719</v>
       </c>
       <c r="D18">
-        <v>5.528728646338966</v>
+        <v>2.872981057408755</v>
       </c>
       <c r="E18">
-        <v>10.9280388350661</v>
+        <v>6.135668913328209</v>
       </c>
       <c r="F18">
-        <v>49.52130895741048</v>
+        <v>48.3953931425659</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.777311900359713</v>
+        <v>5.610210894503878</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.03533678495339</v>
+        <v>19.8260647521864</v>
       </c>
       <c r="N18">
-        <v>20.83939649931412</v>
+        <v>13.57521694614404</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.08832203073881</v>
+        <v>30.62358621771817</v>
       </c>
       <c r="C19">
-        <v>15.37311534036575</v>
+        <v>22.47520354509053</v>
       </c>
       <c r="D19">
-        <v>5.528169817750441</v>
+        <v>2.867000744727713</v>
       </c>
       <c r="E19">
-        <v>10.92941715840636</v>
+        <v>6.13379317295527</v>
       </c>
       <c r="F19">
-        <v>49.49528325618218</v>
+        <v>48.22986738763105</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.778876619978552</v>
+        <v>5.611668806216754</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.02403658434143</v>
+        <v>19.73024550151791</v>
       </c>
       <c r="N19">
-        <v>20.84369302854675</v>
+        <v>13.59150651828373</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.26211244231247</v>
+        <v>31.28655558667947</v>
       </c>
       <c r="C20">
-        <v>15.52333827820296</v>
+        <v>22.96728018216096</v>
       </c>
       <c r="D20">
-        <v>5.530685831727115</v>
+        <v>2.894043761641647</v>
       </c>
       <c r="E20">
-        <v>10.92329079108639</v>
+        <v>6.142434814034859</v>
       </c>
       <c r="F20">
-        <v>49.6131868356056</v>
+        <v>48.97587768336829</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.77190346760624</v>
+        <v>5.605305587103042</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.07519123957957</v>
+        <v>20.15952608723897</v>
       </c>
       <c r="N20">
-        <v>20.82449212175524</v>
+        <v>13.51865457999238</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.84461388456669</v>
+        <v>33.46779288079058</v>
       </c>
       <c r="C21">
-        <v>16.02307687725716</v>
+        <v>24.58716260403147</v>
       </c>
       <c r="D21">
-        <v>5.53916198397562</v>
+        <v>2.987494632012845</v>
       </c>
       <c r="E21">
-        <v>10.90403962727826</v>
+        <v>6.17509816406543</v>
       </c>
       <c r="F21">
-        <v>50.02285299637228</v>
+        <v>51.50378612553086</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.749668318287483</v>
+        <v>5.587523452665858</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.25224974863952</v>
+        <v>21.56971568170548</v>
       </c>
       <c r="N21">
-        <v>20.76232630103937</v>
+        <v>13.282316560354</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.22356383586913</v>
+        <v>34.86161738557933</v>
       </c>
       <c r="C22">
-        <v>16.34536877018037</v>
+        <v>25.62317542247538</v>
       </c>
       <c r="D22">
-        <v>5.544720120600738</v>
+        <v>3.050901617048642</v>
       </c>
       <c r="E22">
-        <v>10.89244909323283</v>
+        <v>6.199305631084375</v>
       </c>
       <c r="F22">
-        <v>50.30040776146028</v>
+        <v>53.17453815122165</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.736024999040445</v>
+        <v>5.578767934127148</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.37169856762169</v>
+        <v>22.46926956445305</v>
       </c>
       <c r="N22">
-        <v>20.72344933794135</v>
+        <v>13.13484714848773</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.02151473150081</v>
+        <v>34.12041960449429</v>
       </c>
       <c r="C23">
-        <v>16.17378720003507</v>
+        <v>25.07215378066128</v>
       </c>
       <c r="D23">
-        <v>5.54175184590456</v>
+        <v>3.016818638590181</v>
       </c>
       <c r="E23">
-        <v>10.89854461082566</v>
+        <v>6.18611319406079</v>
       </c>
       <c r="F23">
-        <v>50.15139125677227</v>
+        <v>52.28091786166957</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.74322545051448</v>
+        <v>5.583165896861289</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.30761392162659</v>
+        <v>21.99105244883601</v>
       </c>
       <c r="N23">
-        <v>20.74403819446988</v>
+        <v>13.21286396686795</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.25257218894064</v>
+        <v>31.25032879719949</v>
       </c>
       <c r="C24">
-        <v>15.51510593763802</v>
+        <v>22.94038865645509</v>
       </c>
       <c r="D24">
-        <v>5.530547582870261</v>
+        <v>2.892549876477207</v>
       </c>
       <c r="E24">
-        <v>10.92362220362116</v>
+        <v>6.141946973263809</v>
       </c>
       <c r="F24">
-        <v>49.60666059118432</v>
+        <v>48.93483524059219</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.772281906457982</v>
+        <v>5.605641928381473</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.0723622270213</v>
+        <v>20.13607732767516</v>
       </c>
       <c r="N24">
-        <v>20.82553772332894</v>
+        <v>13.52262512140383</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.42023421292712</v>
+        <v>28.00159497655638</v>
       </c>
       <c r="C25">
-        <v>14.7900735140769</v>
+        <v>20.52991835739628</v>
       </c>
       <c r="D25">
-        <v>5.518531146330498</v>
+        <v>2.766069863210403</v>
       </c>
       <c r="E25">
-        <v>10.95494097650179</v>
+        <v>6.105625891445983</v>
       </c>
       <c r="F25">
-        <v>49.06289827814451</v>
+        <v>45.39058385082298</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.807446087105752</v>
+        <v>5.641051536023784</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.8354758208488</v>
+        <v>18.37801143351789</v>
       </c>
       <c r="N25">
-        <v>20.92095114036778</v>
+        <v>13.88255129539342</v>
       </c>
       <c r="O25">
         <v>0</v>
